--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,6 +70,9 @@
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -100,49 +103,55 @@
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>well</t>
   </si>
   <si>
     <t>help</t>
@@ -151,22 +160,16 @@
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>corona</t>
@@ -535,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8333333333333334</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -646,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8047945205479452</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,16 +720,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.839622641509434</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L7">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="M7">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5608465608465608</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.559322033898305</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5581395348837209</v>
+        <v>0.5562015503875969</v>
       </c>
       <c r="C10">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8028169014084507</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,16 +1020,16 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1049,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4630872483221476</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1099,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7872340425531915</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1149,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2698412698412698</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1447721179624665</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>319</v>
+        <v>187</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1249,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.08666666666666667</v>
+        <v>0.1501340482573726</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7441860465116279</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,63 +1299,87 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01032591158438206</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>275</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L17">
+        <v>107</v>
+      </c>
+      <c r="M17">
+        <v>107</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.01452081316553727</v>
+      </c>
+      <c r="C18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>0.15</v>
+      </c>
+      <c r="F18">
+        <v>0.85</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3054</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>0.2</v>
-      </c>
-      <c r="F17">
-        <v>0.8</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>3067</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7421875</v>
-      </c>
-      <c r="L17">
-        <v>95</v>
-      </c>
-      <c r="M17">
-        <v>95</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K18">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1364,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1416,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.6411764705882353</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L21">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M21">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1442,21 +1469,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6033898305084746</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1468,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.602510460251046</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L23">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="M23">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1494,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.5846153846153846</v>
+        <v>0.6135593220338983</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1520,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1546,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1572,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5319148936170213</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1598,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5280898876404494</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L28">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1624,15 +1651,15 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5098039215686274</v>
+        <v>0.52</v>
       </c>
       <c r="L29">
         <v>26</v>
@@ -1650,33 +1677,33 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.009419152276295133</v>
+        <v>0.008160703075957313</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N30">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="O30">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>3155</v>
+        <v>3160</v>
       </c>
     </row>
   </sheetData>
